--- a/Q5/bem_results.xlsx
+++ b/Q5/bem_results.xlsx
@@ -20,16 +20,13 @@
     <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
     <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
-  <fonts count="2">
+  <fonts count="1">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -40,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -48,24 +45,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -431,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C33"/>
+  <dimension ref="A1:C65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,367 +426,719 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" t="inlineStr">
         <is>
           <t>BEM1</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>BEM2</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
+        <v>39083</v>
+      </c>
+      <c r="B2" t="n">
+        <v>1.048503964569569</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1.118599095396711</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>39173</v>
+      </c>
+      <c r="B3" t="n">
+        <v>1.410122566058369</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1.107310965887542</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>39264</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1.186652734920379</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.143828391957769</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>39356</v>
+      </c>
+      <c r="B5" t="n">
+        <v>1.017675747557156</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9284088601296148</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
         <v>39448</v>
       </c>
-      <c r="B2" t="n">
-        <v>1.194740196770816</v>
-      </c>
-      <c r="C2" t="n">
-        <v>1.245657590812321</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="B6" t="n">
+        <v>1.194740196776678</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.245657590888882</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
         <v>39539</v>
       </c>
-      <c r="B3" t="n">
-        <v>0.6486895095971335</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.6955696179277382</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
+      <c r="B7" t="n">
+        <v>0.6413354420775619</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.5778915183551447</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
         <v>39630</v>
       </c>
-      <c r="B4" t="n">
-        <v>1.139183569380187</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.9327408748859511</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="B8" t="n">
+        <v>1.139183569408964</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8834490735598166</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
         <v>39722</v>
       </c>
-      <c r="B5" t="n">
-        <v>1.001532386059978</v>
-      </c>
-      <c r="C5" t="n">
-        <v>1.40106161205491</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="B9" t="n">
+        <v>1.001532395528493</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.401061341522869</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
         <v>39814</v>
       </c>
-      <c r="B6" t="n">
-        <v>0.8136756687848745</v>
-      </c>
-      <c r="C6" t="n">
-        <v>3.515060850423879</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
+      <c r="B10" t="n">
+        <v>0.8136756698448266</v>
+      </c>
+      <c r="C10" t="n">
+        <v>3.5150608504674</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
         <v>39904</v>
       </c>
-      <c r="B7" t="n">
-        <v>3.742584683206829</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1.890627848784554</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
+      <c r="B11" t="n">
+        <v>3.744333847828862</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.890856080222392</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
         <v>39995</v>
       </c>
-      <c r="B8" t="n">
-        <v>3.475538110733467</v>
-      </c>
-      <c r="C8" t="n">
-        <v>1.901427311151593</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
+      <c r="B12" t="n">
+        <v>3.475781984836956</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1.901426910997728</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
         <v>40087</v>
       </c>
-      <c r="B9" t="n">
-        <v>3.167288557384573</v>
-      </c>
-      <c r="C9" t="n">
-        <v>3.217547108966556</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
+      <c r="B13" t="n">
+        <v>3.172539692788057</v>
+      </c>
+      <c r="C13" t="n">
+        <v>3.217850470865713</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
         <v>40179</v>
       </c>
-      <c r="B10" t="n">
-        <v>2.35881612816069</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.499284249173272</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
+      <c r="B14" t="n">
+        <v>2.364348997574339</v>
+      </c>
+      <c r="C14" t="n">
+        <v>1.499349721262355</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
         <v>40269</v>
       </c>
-      <c r="B11" t="n">
-        <v>2.13295288013029</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.706900762631847</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
+      <c r="B15" t="n">
+        <v>2.132952881284389</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.706900761923613</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
         <v>40360</v>
       </c>
-      <c r="B12" t="n">
-        <v>1.320427661583601</v>
-      </c>
-      <c r="C12" t="n">
-        <v>1.318340178448629</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
+      <c r="B16" t="n">
+        <v>1.314661667862183</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.316461771978794</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
         <v>40452</v>
       </c>
-      <c r="B13" t="n">
-        <v>1.254478733448927</v>
-      </c>
-      <c r="C13" t="n">
-        <v>1.330695181778196</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
+      <c r="B17" t="n">
+        <v>1.229953892891267</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.345613825894532</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
         <v>40544</v>
       </c>
-      <c r="B14" t="n">
-        <v>1.52184873926533</v>
-      </c>
-      <c r="C14" t="n">
-        <v>1.110880459357766</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
+      <c r="B18" t="n">
+        <v>1.554529445860453</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.120212883789762</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
         <v>40634</v>
       </c>
-      <c r="B15" t="n">
-        <v>1.110760489820528</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.8402194058653834</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
+      <c r="B19" t="n">
+        <v>1.11049707680273</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8402192727844593</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
         <v>40725</v>
       </c>
-      <c r="B16" t="n">
-        <v>1.147560330181463</v>
-      </c>
-      <c r="C16" t="n">
-        <v>1.084906170475541</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
+      <c r="B20" t="n">
+        <v>1.282216263507863</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.084906169144517</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
         <v>40817</v>
       </c>
-      <c r="B17" t="n">
-        <v>1.054719693937578</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1.019071310000363</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
+      <c r="B21" t="n">
+        <v>1.088531725938857</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.026309830801075</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
         <v>40909</v>
       </c>
-      <c r="B18" t="n">
-        <v>1.391900897071352</v>
-      </c>
-      <c r="C18" t="n">
-        <v>1.298805577303064</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
+      <c r="B22" t="n">
+        <v>1.391900897027831</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.298805640635159</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
         <v>41000</v>
       </c>
-      <c r="B19" t="n">
-        <v>1.32151732756185</v>
-      </c>
-      <c r="C19" t="n">
-        <v>1.176439095363335</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
+      <c r="B23" t="n">
+        <v>1.3162605974534</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.17205471524322</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
         <v>41091</v>
       </c>
-      <c r="B20" t="n">
-        <v>1.00298291017662</v>
-      </c>
-      <c r="C20" t="n">
-        <v>1.158504512359571</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
+      <c r="B24" t="n">
+        <v>1.008558296321738</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.172609499733035</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
         <v>41183</v>
       </c>
-      <c r="B21" t="n">
-        <v>1.572180545400315</v>
-      </c>
-      <c r="C21" t="n">
-        <v>1.474988387085752</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
+      <c r="B25" t="n">
+        <v>1.572180555637814</v>
+      </c>
+      <c r="C25" t="n">
+        <v>1.474988394437204</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
         <v>41275</v>
       </c>
-      <c r="B22" t="n">
-        <v>1.715531616278376</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1.157655331479823</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
+      <c r="B26" t="n">
+        <v>1.715531611857202</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.161048263499609</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
         <v>41365</v>
       </c>
-      <c r="B23" t="n">
-        <v>1.212020603501074</v>
-      </c>
-      <c r="C23" t="n">
-        <v>1.282556637361942</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
+      <c r="B27" t="n">
+        <v>1.2068266072081</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1.282556635260867</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
         <v>41456</v>
       </c>
-      <c r="B24" t="n">
-        <v>1.347196100475578</v>
-      </c>
-      <c r="C24" t="n">
-        <v>1.519992970039574</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
+      <c r="B28" t="n">
+        <v>1.363744716039683</v>
+      </c>
+      <c r="C28" t="n">
+        <v>1.517522959280271</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
         <v>41548</v>
       </c>
-      <c r="B25" t="n">
-        <v>1.514707126023751</v>
-      </c>
-      <c r="C25" t="n">
-        <v>1.263579849968366</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
+      <c r="B29" t="n">
+        <v>1.513716773410501</v>
+      </c>
+      <c r="C29" t="n">
+        <v>1.263524354328283</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
         <v>41640</v>
       </c>
-      <c r="B26" t="n">
-        <v>1.501049816843647</v>
-      </c>
-      <c r="C26" t="n">
-        <v>1.192011051160868</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
+      <c r="B30" t="n">
+        <v>1.501072519502955</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1.192010969280943</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
         <v>41730</v>
       </c>
-      <c r="B27" t="n">
-        <v>1.270396573344712</v>
-      </c>
-      <c r="C27" t="n">
-        <v>1.151371081700603</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
+      <c r="B31" t="n">
+        <v>1.270394964651089</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1.151371112079325</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
         <v>41821</v>
       </c>
-      <c r="B28" t="n">
-        <v>1.29526754085969</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1.211062007827124</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
+      <c r="B32" t="n">
+        <v>1.295301105969493</v>
+      </c>
+      <c r="C32" t="n">
+        <v>1.211062047348221</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
         <v>41913</v>
       </c>
-      <c r="B29" t="n">
-        <v>0.9770329148906853</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.9851338778760876</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
+      <c r="B33" t="n">
+        <v>0.9741122104898636</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.9851337783453928</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
         <v>42005</v>
       </c>
-      <c r="B30" t="n">
-        <v>1.367302882099786</v>
-      </c>
-      <c r="C30" t="n">
-        <v>1.220504627393915</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
+      <c r="B34" t="n">
+        <v>1.367302798604797</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1.220504648125065</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
         <v>42095</v>
       </c>
-      <c r="B31" t="n">
-        <v>1.062689533512007</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.9543340791793753</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
+      <c r="B35" t="n">
+        <v>1.061072314676004</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.9518169995807568</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
         <v>42186</v>
       </c>
-      <c r="B32" t="n">
-        <v>1.174059338659461</v>
-      </c>
-      <c r="C32" t="n">
-        <v>1.168134388951891</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
+      <c r="B36" t="n">
+        <v>1.174257419537383</v>
+      </c>
+      <c r="C36" t="n">
+        <v>1.168134387472186</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
         <v>42278</v>
       </c>
-      <c r="B33" t="n">
-        <v>1.453779797080301</v>
-      </c>
-      <c r="C33" t="n">
-        <v>1.326860483677628</v>
+      <c r="B37" t="n">
+        <v>1.453779787708953</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1.326860360107496</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>42370</v>
+      </c>
+      <c r="B38" t="n">
+        <v>1.08411088423761</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.8925409164248777</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>42461</v>
+      </c>
+      <c r="B39" t="n">
+        <v>1.383078866462029</v>
+      </c>
+      <c r="C39" t="n">
+        <v>1.113288366809684</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>42552</v>
+      </c>
+      <c r="B40" t="n">
+        <v>1.176592908186436</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1.035091641258035</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>42644</v>
+      </c>
+      <c r="B41" t="n">
+        <v>1.238583379398683</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.009699887966775</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>42736</v>
+      </c>
+      <c r="B42" t="n">
+        <v>1.627365269235526</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.110929181442089</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42826</v>
+      </c>
+      <c r="B43" t="n">
+        <v>1.826214807832116</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.051218043255808</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42917</v>
+      </c>
+      <c r="B44" t="n">
+        <v>1.016287516471159</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.785211447542089</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43009</v>
+      </c>
+      <c r="B45" t="n">
+        <v>1.354334655555611</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1.417266427775132</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>43101</v>
+      </c>
+      <c r="B46" t="n">
+        <v>1.388033718967741</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.5688293675440548</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>43191</v>
+      </c>
+      <c r="B47" t="n">
+        <v>1.035059087089962</v>
+      </c>
+      <c r="C47" t="n">
+        <v>1.172909341075545</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>43282</v>
+      </c>
+      <c r="B48" t="n">
+        <v>1.144313890190318</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.8662861348707196</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>43374</v>
+      </c>
+      <c r="B49" t="n">
+        <v>0.9051344284324969</v>
+      </c>
+      <c r="C49" t="n">
+        <v>1.209270837395415</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>43466</v>
+      </c>
+      <c r="B50" t="n">
+        <v>0.2950138780718703</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.927078856413921</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>43556</v>
+      </c>
+      <c r="B51" t="n">
+        <v>1.084326470128261</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.8651252223620176</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>43647</v>
+      </c>
+      <c r="B52" t="n">
+        <v>0.7486185940981827</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.9049195754403883</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>43739</v>
+      </c>
+      <c r="B53" t="n">
+        <v>1.142959016111256</v>
+      </c>
+      <c r="C53" t="n">
+        <v>0.8733529683141228</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>43831</v>
+      </c>
+      <c r="B54" t="n">
+        <v>0.42259567911902</v>
+      </c>
+      <c r="C54" t="n">
+        <v>0.737059727356737</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>43922</v>
+      </c>
+      <c r="B55" t="n">
+        <v>-0.8860556897342775</v>
+      </c>
+      <c r="C55" t="n">
+        <v>0.1682704307530258</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>44013</v>
+      </c>
+      <c r="B56" t="n">
+        <v>1.188381412592143</v>
+      </c>
+      <c r="C56" t="n">
+        <v>0.4186378899682097</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>44105</v>
+      </c>
+      <c r="B57" t="n">
+        <v>2.193658064676995</v>
+      </c>
+      <c r="C57" t="n">
+        <v>0.8333975394112514</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>44197</v>
+      </c>
+      <c r="B58" t="n">
+        <v>1.940752282633618</v>
+      </c>
+      <c r="C58" t="n">
+        <v>0.7761519104498404</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B59" t="n">
+        <v>1.697138111366137</v>
+      </c>
+      <c r="C59" t="n">
+        <v>1.230075172712475</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>44378</v>
+      </c>
+      <c r="B60" t="n">
+        <v>1.395464475503161</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.781531647549194</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>44470</v>
+      </c>
+      <c r="B61" t="n">
+        <v>1.752717745322308</v>
+      </c>
+      <c r="C61" t="n">
+        <v>0.8602757355113511</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>44562</v>
+      </c>
+      <c r="B62" t="n">
+        <v>1.487041177784931</v>
+      </c>
+      <c r="C62" t="n">
+        <v>0.7343440087250741</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>44652</v>
+      </c>
+      <c r="B63" t="n">
+        <v>0.783077295156076</v>
+      </c>
+      <c r="C63" t="n">
+        <v>1.152893238093888</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>44743</v>
+      </c>
+      <c r="B64" t="n">
+        <v>0.5257023312140063</v>
+      </c>
+      <c r="C64" t="n">
+        <v>0.7320574669083868</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>44835</v>
+      </c>
+      <c r="B65" t="n">
+        <v>-0.334325431883542</v>
+      </c>
+      <c r="C65" t="n">
+        <v>0.3516642432780159</v>
       </c>
     </row>
   </sheetData>

--- a/Q5/bem_results.xlsx
+++ b/Q5/bem_results.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C65"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -442,10 +442,10 @@
         <v>39083</v>
       </c>
       <c r="B2" t="n">
-        <v>1.048503964569569</v>
+        <v>1.048492868869211</v>
       </c>
       <c r="C2" t="n">
-        <v>1.118599095396711</v>
+        <v>1.118599090739458</v>
       </c>
     </row>
     <row r="3">
@@ -453,10 +453,10 @@
         <v>39173</v>
       </c>
       <c r="B3" t="n">
-        <v>1.410122566058369</v>
+        <v>1.410122566060679</v>
       </c>
       <c r="C3" t="n">
-        <v>1.107310965887542</v>
+        <v>1.10733266680807</v>
       </c>
     </row>
     <row r="4">
@@ -464,10 +464,10 @@
         <v>39264</v>
       </c>
       <c r="B4" t="n">
-        <v>1.186652734920379</v>
+        <v>1.186652734268101</v>
       </c>
       <c r="C4" t="n">
-        <v>1.143828391957769</v>
+        <v>1.143828391569102</v>
       </c>
     </row>
     <row r="5">
@@ -475,10 +475,10 @@
         <v>39356</v>
       </c>
       <c r="B5" t="n">
-        <v>1.017675747557156</v>
+        <v>1.017675747555913</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9284088601296148</v>
+        <v>0.9284088600615803</v>
       </c>
     </row>
     <row r="6">
@@ -486,10 +486,10 @@
         <v>39448</v>
       </c>
       <c r="B6" t="n">
-        <v>1.194740196776678</v>
+        <v>1.194740196770816</v>
       </c>
       <c r="C6" t="n">
-        <v>1.245657590888882</v>
+        <v>1.245657590812321</v>
       </c>
     </row>
     <row r="7">
@@ -497,10 +497,10 @@
         <v>39539</v>
       </c>
       <c r="B7" t="n">
-        <v>0.6413354420775619</v>
+        <v>0.6486895095971335</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5778915183551447</v>
+        <v>0.6955696179277382</v>
       </c>
     </row>
     <row r="8">
@@ -508,10 +508,10 @@
         <v>39630</v>
       </c>
       <c r="B8" t="n">
-        <v>1.139183569408964</v>
+        <v>1.139183569380187</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8834490735598166</v>
+        <v>0.9327408748859511</v>
       </c>
     </row>
     <row r="9">
@@ -519,10 +519,10 @@
         <v>39722</v>
       </c>
       <c r="B9" t="n">
-        <v>1.001532395528493</v>
+        <v>1.001532386059978</v>
       </c>
       <c r="C9" t="n">
-        <v>1.401061341522869</v>
+        <v>1.40106161205491</v>
       </c>
     </row>
     <row r="10">
@@ -530,10 +530,10 @@
         <v>39814</v>
       </c>
       <c r="B10" t="n">
-        <v>0.8136756698448266</v>
+        <v>0.8136756687848745</v>
       </c>
       <c r="C10" t="n">
-        <v>3.5150608504674</v>
+        <v>3.515060850423879</v>
       </c>
     </row>
     <row r="11">
@@ -541,10 +541,10 @@
         <v>39904</v>
       </c>
       <c r="B11" t="n">
-        <v>3.744333847828862</v>
+        <v>3.742584683206829</v>
       </c>
       <c r="C11" t="n">
-        <v>1.890856080222392</v>
+        <v>1.890627848784554</v>
       </c>
     </row>
     <row r="12">
@@ -552,10 +552,10 @@
         <v>39995</v>
       </c>
       <c r="B12" t="n">
-        <v>3.475781984836956</v>
+        <v>3.475538110733467</v>
       </c>
       <c r="C12" t="n">
-        <v>1.901426910997728</v>
+        <v>1.901427311151593</v>
       </c>
     </row>
     <row r="13">
@@ -563,10 +563,10 @@
         <v>40087</v>
       </c>
       <c r="B13" t="n">
-        <v>3.172539692788057</v>
+        <v>3.167288557384573</v>
       </c>
       <c r="C13" t="n">
-        <v>3.217850470865713</v>
+        <v>3.217547108966556</v>
       </c>
     </row>
     <row r="14">
@@ -574,10 +574,10 @@
         <v>40179</v>
       </c>
       <c r="B14" t="n">
-        <v>2.364348997574339</v>
+        <v>2.35881612816069</v>
       </c>
       <c r="C14" t="n">
-        <v>1.499349721262355</v>
+        <v>1.499284249173272</v>
       </c>
     </row>
     <row r="15">
@@ -585,10 +585,10 @@
         <v>40269</v>
       </c>
       <c r="B15" t="n">
-        <v>2.132952881284389</v>
+        <v>2.13295288013029</v>
       </c>
       <c r="C15" t="n">
-        <v>1.706900761923613</v>
+        <v>1.706900762631847</v>
       </c>
     </row>
     <row r="16">
@@ -596,10 +596,10 @@
         <v>40360</v>
       </c>
       <c r="B16" t="n">
-        <v>1.314661667862183</v>
+        <v>1.320427661583601</v>
       </c>
       <c r="C16" t="n">
-        <v>1.316461771978794</v>
+        <v>1.318340178448629</v>
       </c>
     </row>
     <row r="17">
@@ -607,10 +607,10 @@
         <v>40452</v>
       </c>
       <c r="B17" t="n">
-        <v>1.229953892891267</v>
+        <v>1.254478733448927</v>
       </c>
       <c r="C17" t="n">
-        <v>1.345613825894532</v>
+        <v>1.330695181778196</v>
       </c>
     </row>
     <row r="18">
@@ -618,10 +618,10 @@
         <v>40544</v>
       </c>
       <c r="B18" t="n">
-        <v>1.554529445860453</v>
+        <v>1.52184873926533</v>
       </c>
       <c r="C18" t="n">
-        <v>1.120212883789762</v>
+        <v>1.110880459357766</v>
       </c>
     </row>
     <row r="19">
@@ -629,10 +629,10 @@
         <v>40634</v>
       </c>
       <c r="B19" t="n">
-        <v>1.11049707680273</v>
+        <v>1.110760489820528</v>
       </c>
       <c r="C19" t="n">
-        <v>0.8402192727844593</v>
+        <v>0.8402194058653834</v>
       </c>
     </row>
     <row r="20">
@@ -640,10 +640,10 @@
         <v>40725</v>
       </c>
       <c r="B20" t="n">
-        <v>1.282216263507863</v>
+        <v>1.147560330181463</v>
       </c>
       <c r="C20" t="n">
-        <v>1.084906169144517</v>
+        <v>1.084906170475541</v>
       </c>
     </row>
     <row r="21">
@@ -651,10 +651,10 @@
         <v>40817</v>
       </c>
       <c r="B21" t="n">
-        <v>1.088531725938857</v>
+        <v>1.054719693937578</v>
       </c>
       <c r="C21" t="n">
-        <v>1.026309830801075</v>
+        <v>1.019071310000363</v>
       </c>
     </row>
     <row r="22">
@@ -662,10 +662,10 @@
         <v>40909</v>
       </c>
       <c r="B22" t="n">
-        <v>1.391900897027831</v>
+        <v>1.391900897071352</v>
       </c>
       <c r="C22" t="n">
-        <v>1.298805640635159</v>
+        <v>1.298805577303064</v>
       </c>
     </row>
     <row r="23">
@@ -673,10 +673,10 @@
         <v>41000</v>
       </c>
       <c r="B23" t="n">
-        <v>1.3162605974534</v>
+        <v>1.32151732756185</v>
       </c>
       <c r="C23" t="n">
-        <v>1.17205471524322</v>
+        <v>1.176439095363335</v>
       </c>
     </row>
     <row r="24">
@@ -684,10 +684,10 @@
         <v>41091</v>
       </c>
       <c r="B24" t="n">
-        <v>1.008558296321738</v>
+        <v>1.00298291017662</v>
       </c>
       <c r="C24" t="n">
-        <v>1.172609499733035</v>
+        <v>1.158504512359571</v>
       </c>
     </row>
     <row r="25">
@@ -695,10 +695,10 @@
         <v>41183</v>
       </c>
       <c r="B25" t="n">
-        <v>1.572180555637814</v>
+        <v>1.572180545400315</v>
       </c>
       <c r="C25" t="n">
-        <v>1.474988394437204</v>
+        <v>1.474988387085752</v>
       </c>
     </row>
     <row r="26">
@@ -706,10 +706,10 @@
         <v>41275</v>
       </c>
       <c r="B26" t="n">
-        <v>1.715531611857202</v>
+        <v>1.715531616278376</v>
       </c>
       <c r="C26" t="n">
-        <v>1.161048263499609</v>
+        <v>1.157655331479823</v>
       </c>
     </row>
     <row r="27">
@@ -717,10 +717,10 @@
         <v>41365</v>
       </c>
       <c r="B27" t="n">
-        <v>1.2068266072081</v>
+        <v>1.212020603501074</v>
       </c>
       <c r="C27" t="n">
-        <v>1.282556635260867</v>
+        <v>1.282556637361942</v>
       </c>
     </row>
     <row r="28">
@@ -728,10 +728,10 @@
         <v>41456</v>
       </c>
       <c r="B28" t="n">
-        <v>1.363744716039683</v>
+        <v>1.347196100475578</v>
       </c>
       <c r="C28" t="n">
-        <v>1.517522959280271</v>
+        <v>1.519992970039574</v>
       </c>
     </row>
     <row r="29">
@@ -739,10 +739,10 @@
         <v>41548</v>
       </c>
       <c r="B29" t="n">
-        <v>1.513716773410501</v>
+        <v>1.514707126023751</v>
       </c>
       <c r="C29" t="n">
-        <v>1.263524354328283</v>
+        <v>1.263579849968366</v>
       </c>
     </row>
     <row r="30">
@@ -750,10 +750,10 @@
         <v>41640</v>
       </c>
       <c r="B30" t="n">
-        <v>1.501072519502955</v>
+        <v>1.501049816843647</v>
       </c>
       <c r="C30" t="n">
-        <v>1.192010969280943</v>
+        <v>1.192011051160868</v>
       </c>
     </row>
     <row r="31">
@@ -761,10 +761,10 @@
         <v>41730</v>
       </c>
       <c r="B31" t="n">
-        <v>1.270394964651089</v>
+        <v>1.270396573344712</v>
       </c>
       <c r="C31" t="n">
-        <v>1.151371112079325</v>
+        <v>1.151371081700603</v>
       </c>
     </row>
     <row r="32">
@@ -772,10 +772,10 @@
         <v>41821</v>
       </c>
       <c r="B32" t="n">
-        <v>1.295301105969493</v>
+        <v>1.29526754085969</v>
       </c>
       <c r="C32" t="n">
-        <v>1.211062047348221</v>
+        <v>1.211062007827124</v>
       </c>
     </row>
     <row r="33">
@@ -783,10 +783,10 @@
         <v>41913</v>
       </c>
       <c r="B33" t="n">
-        <v>0.9741122104898636</v>
+        <v>0.9770329148906853</v>
       </c>
       <c r="C33" t="n">
-        <v>0.9851337783453928</v>
+        <v>0.9851338778760876</v>
       </c>
     </row>
     <row r="34">
@@ -794,10 +794,10 @@
         <v>42005</v>
       </c>
       <c r="B34" t="n">
-        <v>1.367302798604797</v>
+        <v>1.367302882099786</v>
       </c>
       <c r="C34" t="n">
-        <v>1.220504648125065</v>
+        <v>1.220504627393915</v>
       </c>
     </row>
     <row r="35">
@@ -805,10 +805,10 @@
         <v>42095</v>
       </c>
       <c r="B35" t="n">
-        <v>1.061072314676004</v>
+        <v>1.062689533512007</v>
       </c>
       <c r="C35" t="n">
-        <v>0.9518169995807568</v>
+        <v>0.9543340791793753</v>
       </c>
     </row>
     <row r="36">
@@ -816,10 +816,10 @@
         <v>42186</v>
       </c>
       <c r="B36" t="n">
-        <v>1.174257419537383</v>
+        <v>1.174059338659461</v>
       </c>
       <c r="C36" t="n">
-        <v>1.168134387472186</v>
+        <v>1.168134388951891</v>
       </c>
     </row>
     <row r="37">
@@ -827,318 +827,32 @@
         <v>42278</v>
       </c>
       <c r="B37" t="n">
-        <v>1.453779787708953</v>
+        <v>1.453779797080301</v>
       </c>
       <c r="C37" t="n">
-        <v>1.326860360107496</v>
+        <v>1.326860483677628</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
-        <v>42370</v>
+        <v>38991</v>
       </c>
       <c r="B38" t="n">
-        <v>1.08411088423761</v>
+        <v>1.651534099653951</v>
       </c>
       <c r="C38" t="n">
-        <v>0.8925409164248777</v>
+        <v>1.236793221320198</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
-        <v>42461</v>
+        <v>42370</v>
       </c>
       <c r="B39" t="n">
-        <v>1.383078866462029</v>
+        <v>1.084110882015565</v>
       </c>
       <c r="C39" t="n">
-        <v>1.113288366809684</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>42552</v>
-      </c>
-      <c r="B40" t="n">
-        <v>1.176592908186436</v>
-      </c>
-      <c r="C40" t="n">
-        <v>1.035091641258035</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>42644</v>
-      </c>
-      <c r="B41" t="n">
-        <v>1.238583379398683</v>
-      </c>
-      <c r="C41" t="n">
-        <v>1.009699887966775</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>42736</v>
-      </c>
-      <c r="B42" t="n">
-        <v>1.627365269235526</v>
-      </c>
-      <c r="C42" t="n">
-        <v>1.110929181442089</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>42826</v>
-      </c>
-      <c r="B43" t="n">
-        <v>1.826214807832116</v>
-      </c>
-      <c r="C43" t="n">
-        <v>1.051218043255808</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42917</v>
-      </c>
-      <c r="B44" t="n">
-        <v>1.016287516471159</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.785211447542089</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43009</v>
-      </c>
-      <c r="B45" t="n">
-        <v>1.354334655555611</v>
-      </c>
-      <c r="C45" t="n">
-        <v>1.417266427775132</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>43101</v>
-      </c>
-      <c r="B46" t="n">
-        <v>1.388033718967741</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.5688293675440548</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>43191</v>
-      </c>
-      <c r="B47" t="n">
-        <v>1.035059087089962</v>
-      </c>
-      <c r="C47" t="n">
-        <v>1.172909341075545</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>43282</v>
-      </c>
-      <c r="B48" t="n">
-        <v>1.144313890190318</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.8662861348707196</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>43374</v>
-      </c>
-      <c r="B49" t="n">
-        <v>0.9051344284324969</v>
-      </c>
-      <c r="C49" t="n">
-        <v>1.209270837395415</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>43466</v>
-      </c>
-      <c r="B50" t="n">
-        <v>0.2950138780718703</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.927078856413921</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>43556</v>
-      </c>
-      <c r="B51" t="n">
-        <v>1.084326470128261</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.8651252223620176</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="1" t="n">
-        <v>43647</v>
-      </c>
-      <c r="B52" t="n">
-        <v>0.7486185940981827</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.9049195754403883</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="n">
-        <v>43739</v>
-      </c>
-      <c r="B53" t="n">
-        <v>1.142959016111256</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.8733529683141228</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="1" t="n">
-        <v>43831</v>
-      </c>
-      <c r="B54" t="n">
-        <v>0.42259567911902</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.737059727356737</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="n">
-        <v>43922</v>
-      </c>
-      <c r="B55" t="n">
-        <v>-0.8860556897342775</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.1682704307530258</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="1" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B56" t="n">
-        <v>1.188381412592143</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.4186378899682097</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="n">
-        <v>44105</v>
-      </c>
-      <c r="B57" t="n">
-        <v>2.193658064676995</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.8333975394112514</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="1" t="n">
-        <v>44197</v>
-      </c>
-      <c r="B58" t="n">
-        <v>1.940752282633618</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.7761519104498404</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" s="1" t="n">
-        <v>44287</v>
-      </c>
-      <c r="B59" t="n">
-        <v>1.697138111366137</v>
-      </c>
-      <c r="C59" t="n">
-        <v>1.230075172712475</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="1" t="n">
-        <v>44378</v>
-      </c>
-      <c r="B60" t="n">
-        <v>1.395464475503161</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.781531647549194</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="n">
-        <v>44470</v>
-      </c>
-      <c r="B61" t="n">
-        <v>1.752717745322308</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.8602757355113511</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="1" t="n">
-        <v>44562</v>
-      </c>
-      <c r="B62" t="n">
-        <v>1.487041177784931</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.7343440087250741</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="1" t="n">
-        <v>44652</v>
-      </c>
-      <c r="B63" t="n">
-        <v>0.783077295156076</v>
-      </c>
-      <c r="C63" t="n">
-        <v>1.152893238093888</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="n">
-        <v>44743</v>
-      </c>
-      <c r="B64" t="n">
-        <v>0.5257023312140063</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.7320574669083868</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="1" t="n">
-        <v>44835</v>
-      </c>
-      <c r="B65" t="n">
-        <v>-0.334325431883542</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.3516642432780159</v>
+        <v>0.8925410057138095</v>
       </c>
     </row>
   </sheetData>
